--- a/Chi Phi Hang Thang.xlsx
+++ b/Chi Phi Hang Thang.xlsx
@@ -717,7 +717,7 @@
   <dimension ref="E1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>

--- a/Chi Phi Hang Thang.xlsx
+++ b/Chi Phi Hang Thang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>NGÀY CHI</t>
+  </si>
+  <si>
+    <t>Mua máy xay sinh tố</t>
   </si>
 </sst>
 </file>
@@ -717,7 +720,7 @@
   <dimension ref="E1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -799,7 +802,7 @@
       </c>
       <c r="J8" s="17">
         <f>SUM(G:G)</f>
-        <v>3435</v>
+        <v>5035</v>
       </c>
       <c r="M8" s="16"/>
     </row>
@@ -855,12 +858,18 @@
       <c r="E12" s="26">
         <v>5</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="34"/>
+      <c r="F12" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="28">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="33">
+        <v>42682</v>
+      </c>
       <c r="J12" s="22">
         <f>(10000-J8)</f>
-        <v>6565</v>
+        <v>4965</v>
       </c>
       <c r="K12" s="30" t="str">
         <f>IF(J12&gt;=3000,"Good ! Bạn Tiêu Tiết Kiệm","Bạn Chưa Tiết Kiệm")</f>
@@ -871,9 +880,15 @@
       <c r="E13" s="26">
         <v>6</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="34"/>
+      <c r="F13" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="28">
+        <v>600</v>
+      </c>
+      <c r="H13" s="33">
+        <v>42683</v>
+      </c>
     </row>
     <row r="14" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E14" s="26">

--- a/Chi Phi Hang Thang.xlsx
+++ b/Chi Phi Hang Thang.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Chi Phí 11-2016" sheetId="1" r:id="rId1"/>
-    <sheet name="Chi Phí 12-2016" sheetId="2" r:id="rId2"/>
+    <sheet name="Chi Tháng 10-2016" sheetId="3" r:id="rId1"/>
+    <sheet name="Chi Phí 11-2016" sheetId="1" r:id="rId2"/>
+    <sheet name="Chi Phí 12-2016" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>STT</t>
   </si>
@@ -34,9 +35,6 @@
     <t xml:space="preserve">Cho em Thịnh Mượn </t>
   </si>
   <si>
-    <t>Cho em Nhi Mượn</t>
-  </si>
-  <si>
     <t>Trả em Bình</t>
   </si>
   <si>
@@ -62,6 +60,39 @@
   </si>
   <si>
     <t>Mua máy xay sinh tố</t>
+  </si>
+  <si>
+    <t>Nộp tiền ăn</t>
+  </si>
+  <si>
+    <t>09/61/2016</t>
+  </si>
+  <si>
+    <t>Cho em nhi Mượn nộp tiền ăn</t>
+  </si>
+  <si>
+    <t>Cho em Nhi Mượn tiền tiêu vặt</t>
+  </si>
+  <si>
+    <t>CHI PHÍ THÁNG 10/2016</t>
+  </si>
+  <si>
+    <t>Cho em Nhi Mượn Nộp tiền Phòng</t>
+  </si>
+  <si>
+    <t>Cho em nhi mượn sửa xe</t>
+  </si>
+  <si>
+    <t>Cho em Nhi Mượn nộp tiền ăn</t>
+  </si>
+  <si>
+    <t>Hôm bé Lệ Xuống chơi 500k+Tối 300k</t>
+  </si>
+  <si>
+    <t>Em nhi mượn sáng Hôm đi làm</t>
+  </si>
+  <si>
+    <t>Cho em Nhi Mượn tiền Phòng</t>
   </si>
 </sst>
 </file>
@@ -720,24 +751,24 @@
   <dimension ref="E1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="12.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="2"/>
-    <col min="10" max="10" width="36.5546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="34.77734375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="4" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="2"/>
+    <col min="10" max="10" width="36.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="34.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="5:16" x14ac:dyDescent="0.3">
       <c r="F2" s="8"/>
       <c r="H2" s="31"/>
       <c r="I2"/>
@@ -747,9 +778,9 @@
       <c r="M2"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="5:16" x14ac:dyDescent="0.3">
       <c r="F3" s="10" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3"/>
@@ -758,7 +789,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F4" s="9"/>
       <c r="H4" s="31"/>
       <c r="I4"/>
@@ -767,8 +798,8 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="6" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E7" s="24" t="s">
         <v>0</v>
       </c>
@@ -779,118 +810,102 @@
         <v>2</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" s="4"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E8" s="26">
         <v>1</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G8" s="28">
-        <v>815</v>
-      </c>
-      <c r="H8" s="33">
-        <v>42681</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="H8" s="33"/>
       <c r="J8" s="17">
         <f>SUM(G:G)</f>
-        <v>5035</v>
+        <v>1910</v>
       </c>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E9" s="26">
         <v>2</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G9" s="28">
-        <v>560</v>
-      </c>
-      <c r="H9" s="33">
-        <v>42681</v>
-      </c>
-    </row>
-    <row r="10" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+        <v>160</v>
+      </c>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="26">
         <v>3</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G10" s="28">
-        <v>1500</v>
-      </c>
-      <c r="H10" s="33">
-        <v>42681</v>
-      </c>
-    </row>
-    <row r="11" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+        <v>300</v>
+      </c>
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="26">
         <v>4</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G11" s="28">
-        <v>560</v>
-      </c>
-      <c r="H11" s="33">
-        <v>42681</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="H11" s="33"/>
       <c r="J11" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E12" s="26">
         <v>5</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G12" s="28">
-        <v>1000</v>
-      </c>
-      <c r="H12" s="33">
-        <v>42682</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H12" s="33"/>
       <c r="J12" s="22">
         <f>(10000-J8)</f>
-        <v>4965</v>
+        <v>8090</v>
       </c>
       <c r="K12" s="30" t="str">
         <f>IF(J12&gt;=3000,"Good ! Bạn Tiêu Tiết Kiệm","Bạn Chưa Tiết Kiệm")</f>
         <v>Good ! Bạn Tiêu Tiết Kiệm</v>
       </c>
     </row>
-    <row r="13" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E13" s="26">
         <v>6</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="28">
-        <v>600</v>
-      </c>
-      <c r="H13" s="33">
-        <v>42683</v>
-      </c>
-    </row>
-    <row r="14" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -898,23 +913,23 @@
       <c r="G14" s="28"/>
       <c r="H14" s="34"/>
     </row>
-    <row r="15" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E15" s="26">
         <v>8</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="34"/>
-    </row>
-    <row r="16" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E16" s="26">
         <v>9</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="28"/>
-      <c r="H16" s="34"/>
-    </row>
-    <row r="17" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E17" s="26">
         <v>10</v>
       </c>
@@ -923,7 +938,7 @@
       <c r="H17" s="34"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E18" s="26">
         <v>11</v>
       </c>
@@ -931,7 +946,7 @@
       <c r="G18" s="28"/>
       <c r="H18" s="34"/>
     </row>
-    <row r="19" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="26">
         <v>12</v>
       </c>
@@ -939,7 +954,7 @@
       <c r="G19" s="28"/>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="26">
         <v>13</v>
       </c>
@@ -947,7 +962,7 @@
       <c r="G20" s="28"/>
       <c r="H20" s="34"/>
     </row>
-    <row r="21" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E21" s="26">
         <v>14</v>
       </c>
@@ -955,7 +970,7 @@
       <c r="G21" s="28"/>
       <c r="H21" s="34"/>
     </row>
-    <row r="22" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E22" s="26">
         <v>15</v>
       </c>
@@ -963,7 +978,7 @@
       <c r="G22" s="28"/>
       <c r="H22" s="34"/>
     </row>
-    <row r="23" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E23" s="26">
         <v>16</v>
       </c>
@@ -971,7 +986,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="34"/>
     </row>
-    <row r="24" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E24" s="26">
         <v>17</v>
       </c>
@@ -979,7 +994,7 @@
       <c r="G24" s="28"/>
       <c r="H24" s="34"/>
     </row>
-    <row r="25" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E25" s="26">
         <v>18</v>
       </c>
@@ -987,7 +1002,7 @@
       <c r="G25" s="28"/>
       <c r="H25" s="34"/>
     </row>
-    <row r="26" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E26" s="26">
         <v>19</v>
       </c>
@@ -995,7 +1010,7 @@
       <c r="G26" s="28"/>
       <c r="H26" s="34"/>
     </row>
-    <row r="27" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E27" s="26">
         <v>20</v>
       </c>
@@ -1003,7 +1018,7 @@
       <c r="G27" s="28"/>
       <c r="H27" s="34"/>
     </row>
-    <row r="28" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="26">
         <v>21</v>
       </c>
@@ -1011,7 +1026,7 @@
       <c r="G28" s="28"/>
       <c r="H28" s="34"/>
     </row>
-    <row r="29" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E29" s="26">
         <v>22</v>
       </c>
@@ -1019,12 +1034,11 @@
       <c r="G29" s="28"/>
       <c r="H29" s="34"/>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.3">
       <c r="G30" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1032,23 +1046,354 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="2"/>
+    <col min="10" max="10" width="36.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="34.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="F2" s="8"/>
+      <c r="H2" s="31"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="31"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="9"/>
+      <c r="H4" s="31"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4" s="11"/>
+      <c r="L4"/>
+      <c r="M4"/>
+    </row>
+    <row r="6" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="26">
+        <v>1</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="28">
+        <v>815</v>
+      </c>
+      <c r="H8" s="33">
+        <v>42681</v>
+      </c>
+      <c r="J8" s="17">
+        <f>SUM(G:G)</f>
+        <v>5735</v>
+      </c>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="26">
+        <v>2</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="28">
+        <v>560</v>
+      </c>
+      <c r="H9" s="33">
+        <v>42681</v>
+      </c>
+    </row>
+    <row r="10" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="26">
+        <v>3</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="28">
+        <v>1500</v>
+      </c>
+      <c r="H10" s="33">
+        <v>42681</v>
+      </c>
+    </row>
+    <row r="11" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="26">
+        <v>4</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="28">
+        <v>560</v>
+      </c>
+      <c r="H11" s="33">
+        <v>42681</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="26">
+        <v>5</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="28">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="33">
+        <v>42682</v>
+      </c>
+      <c r="J12" s="22">
+        <f>(10000-J8)</f>
+        <v>4265</v>
+      </c>
+      <c r="K12" s="30" t="str">
+        <f>IF(J12&gt;=3000,"Good ! Bạn Tiêu Tiết Kiệm","Bạn Chưa Tiết Kiệm")</f>
+        <v>Good ! Bạn Tiêu Tiết Kiệm</v>
+      </c>
+    </row>
+    <row r="13" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="26">
+        <v>6</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="28">
+        <v>600</v>
+      </c>
+      <c r="H13" s="33">
+        <v>42683</v>
+      </c>
+    </row>
+    <row r="14" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="26">
+        <v>7</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="28">
+        <v>200</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="26">
+        <v>8</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="28">
+        <v>300</v>
+      </c>
+      <c r="H15" s="33">
+        <v>42683</v>
+      </c>
+    </row>
+    <row r="16" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="26">
+        <v>9</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="28">
+        <v>200</v>
+      </c>
+      <c r="H16" s="33">
+        <v>42683</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="26">
+        <v>10</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="34"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="26">
+        <v>11</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="26">
+        <v>12</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="26">
+        <v>13</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="34"/>
+    </row>
+    <row r="21" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="26">
+        <v>14</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="34"/>
+    </row>
+    <row r="22" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="26">
+        <v>15</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="34"/>
+    </row>
+    <row r="23" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="26">
+        <v>16</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="34"/>
+    </row>
+    <row r="24" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="26">
+        <v>17</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="34"/>
+    </row>
+    <row r="25" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="26">
+        <v>18</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="34"/>
+    </row>
+    <row r="26" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="26">
+        <v>19</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="34"/>
+    </row>
+    <row r="27" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="26">
+        <v>20</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="34"/>
+    </row>
+    <row r="28" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="26">
+        <v>21</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="34"/>
+    </row>
+    <row r="29" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="26">
+        <v>22</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="34"/>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="G30" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:P30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="12.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="14" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="2"/>
-    <col min="10" max="10" width="36.5546875" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="4" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="14" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" style="2"/>
+    <col min="10" max="10" width="36.5703125" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="5:16" x14ac:dyDescent="0.3">
       <c r="F2" s="8"/>
       <c r="H2"/>
       <c r="I2"/>
@@ -1058,9 +1403,9 @@
       <c r="M2"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="5:16" x14ac:dyDescent="0.3">
       <c r="F3" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -1069,7 +1414,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F4" s="9"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -1078,8 +1423,8 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="6" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="5:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="5:16" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E7" s="20" t="s">
         <v>0</v>
       </c>
@@ -1090,12 +1435,12 @@
         <v>2</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" s="4"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="5:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="5:16" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E8" s="6">
         <v>1</v>
       </c>
@@ -1107,31 +1452,31 @@
       </c>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="5:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="5:16" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E9" s="6">
         <v>2</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="5:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="5:16" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="6">
         <v>3</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="5:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="5:16" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="6">
         <v>4</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="19"/>
       <c r="J11" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="5:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="5:16" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E12" s="6">
         <v>5</v>
       </c>
@@ -1142,35 +1487,35 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="5:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="5:16" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E13" s="6">
         <v>6</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="5:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="5:16" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E14" s="6">
         <v>7</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="5:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="5:16" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E15" s="6">
         <v>8</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="5:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="5:16" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E16" s="6">
         <v>9</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E17" s="6">
         <v>10</v>
       </c>
@@ -1178,91 +1523,91 @@
       <c r="G17" s="19"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E18" s="6">
         <v>11</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="6">
         <v>12</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="6">
         <v>13</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E21" s="6">
         <v>14</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E22" s="6">
         <v>15</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E23" s="6">
         <v>16</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E24" s="6">
         <v>17</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E25" s="6">
         <v>18</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="19"/>
     </row>
-    <row r="26" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E26" s="6">
         <v>19</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E27" s="6">
         <v>20</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="6">
         <v>21</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E29" s="6">
         <v>22</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="19"/>
     </row>
-    <row r="30" spans="5:12" ht="21.6" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="5:12" ht="21" thickTop="1" x14ac:dyDescent="0.3">
       <c r="G30" s="15"/>
     </row>
   </sheetData>

--- a/Chi Phi Hang Thang.xlsx
+++ b/Chi Phi Hang Thang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chi Tháng 10-2016" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>STT</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Cho em Nhi Mượn tiền Phòng</t>
+  </si>
+  <si>
+    <t>Tiền tiêu vặt tuần</t>
   </si>
 </sst>
 </file>
@@ -750,25 +753,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="8.85546875" style="2"/>
-    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="2"/>
-    <col min="10" max="10" width="36.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="34.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="12.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="36.5546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="34.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="5:16" x14ac:dyDescent="0.4">
       <c r="F2" s="8"/>
       <c r="H2" s="31"/>
       <c r="I2"/>
@@ -778,7 +781,7 @@
       <c r="M2"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:16" x14ac:dyDescent="0.4">
       <c r="F3" s="10" t="s">
         <v>17</v>
       </c>
@@ -789,7 +792,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F4" s="9"/>
       <c r="H4" s="31"/>
       <c r="I4"/>
@@ -798,8 +801,8 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="6" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E7" s="24" t="s">
         <v>0</v>
       </c>
@@ -818,7 +821,7 @@
       <c r="K7" s="4"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E8" s="26">
         <v>1</v>
       </c>
@@ -835,7 +838,7 @@
       </c>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E9" s="26">
         <v>2</v>
       </c>
@@ -847,7 +850,7 @@
       </c>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E10" s="26">
         <v>3</v>
       </c>
@@ -859,7 +862,7 @@
       </c>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E11" s="26">
         <v>4</v>
       </c>
@@ -877,7 +880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E12" s="26">
         <v>5</v>
       </c>
@@ -897,7 +900,7 @@
         <v>Good ! Bạn Tiêu Tiết Kiệm</v>
       </c>
     </row>
-    <row r="13" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E13" s="26">
         <v>6</v>
       </c>
@@ -905,7 +908,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -913,7 +916,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="34"/>
     </row>
-    <row r="15" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -921,7 +924,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E16" s="26">
         <v>9</v>
       </c>
@@ -929,7 +932,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E17" s="26">
         <v>10</v>
       </c>
@@ -938,7 +941,7 @@
       <c r="H17" s="34"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E18" s="26">
         <v>11</v>
       </c>
@@ -946,7 +949,7 @@
       <c r="G18" s="28"/>
       <c r="H18" s="34"/>
     </row>
-    <row r="19" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E19" s="26">
         <v>12</v>
       </c>
@@ -954,7 +957,7 @@
       <c r="G19" s="28"/>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E20" s="26">
         <v>13</v>
       </c>
@@ -962,7 +965,7 @@
       <c r="G20" s="28"/>
       <c r="H20" s="34"/>
     </row>
-    <row r="21" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E21" s="26">
         <v>14</v>
       </c>
@@ -970,7 +973,7 @@
       <c r="G21" s="28"/>
       <c r="H21" s="34"/>
     </row>
-    <row r="22" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E22" s="26">
         <v>15</v>
       </c>
@@ -978,7 +981,7 @@
       <c r="G22" s="28"/>
       <c r="H22" s="34"/>
     </row>
-    <row r="23" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E23" s="26">
         <v>16</v>
       </c>
@@ -986,7 +989,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="34"/>
     </row>
-    <row r="24" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E24" s="26">
         <v>17</v>
       </c>
@@ -994,7 +997,7 @@
       <c r="G24" s="28"/>
       <c r="H24" s="34"/>
     </row>
-    <row r="25" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E25" s="26">
         <v>18</v>
       </c>
@@ -1002,7 +1005,7 @@
       <c r="G25" s="28"/>
       <c r="H25" s="34"/>
     </row>
-    <row r="26" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E26" s="26">
         <v>19</v>
       </c>
@@ -1010,7 +1013,7 @@
       <c r="G26" s="28"/>
       <c r="H26" s="34"/>
     </row>
-    <row r="27" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E27" s="26">
         <v>20</v>
       </c>
@@ -1018,7 +1021,7 @@
       <c r="G27" s="28"/>
       <c r="H27" s="34"/>
     </row>
-    <row r="28" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E28" s="26">
         <v>21</v>
       </c>
@@ -1026,7 +1029,7 @@
       <c r="G28" s="28"/>
       <c r="H28" s="34"/>
     </row>
-    <row r="29" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E29" s="26">
         <v>22</v>
       </c>
@@ -1034,7 +1037,7 @@
       <c r="G29" s="28"/>
       <c r="H29" s="34"/>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.4">
       <c r="G30" s="15"/>
     </row>
   </sheetData>
@@ -1046,25 +1049,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="8.85546875" style="2"/>
-    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="2"/>
-    <col min="10" max="10" width="36.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="34.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="12.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="36.5546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="34.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="5:16" x14ac:dyDescent="0.4">
       <c r="F2" s="8"/>
       <c r="H2" s="31"/>
       <c r="I2"/>
@@ -1074,7 +1077,7 @@
       <c r="M2"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:16" x14ac:dyDescent="0.4">
       <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
@@ -1085,7 +1088,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F4" s="9"/>
       <c r="H4" s="31"/>
       <c r="I4"/>
@@ -1094,8 +1097,8 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="6" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E7" s="24" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1117,7 @@
       <c r="K7" s="4"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E8" s="26">
         <v>1</v>
       </c>
@@ -1129,11 +1132,11 @@
       </c>
       <c r="J8" s="17">
         <f>SUM(G:G)</f>
-        <v>5735</v>
+        <v>6235</v>
       </c>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E9" s="26">
         <v>2</v>
       </c>
@@ -1147,7 +1150,7 @@
         <v>42681</v>
       </c>
     </row>
-    <row r="10" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E10" s="26">
         <v>3</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>42681</v>
       </c>
     </row>
-    <row r="11" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E11" s="26">
         <v>4</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E12" s="26">
         <v>5</v>
       </c>
@@ -1196,14 +1199,14 @@
       </c>
       <c r="J12" s="22">
         <f>(10000-J8)</f>
-        <v>4265</v>
+        <v>3765</v>
       </c>
       <c r="K12" s="30" t="str">
         <f>IF(J12&gt;=3000,"Good ! Bạn Tiêu Tiết Kiệm","Bạn Chưa Tiết Kiệm")</f>
         <v>Good ! Bạn Tiêu Tiết Kiệm</v>
       </c>
     </row>
-    <row r="13" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E13" s="26">
         <v>6</v>
       </c>
@@ -1217,7 +1220,7 @@
         <v>42683</v>
       </c>
     </row>
-    <row r="14" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -1231,7 +1234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>42683</v>
       </c>
     </row>
-    <row r="16" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E16" s="26">
         <v>9</v>
       </c>
@@ -1259,16 +1262,22 @@
         <v>42683</v>
       </c>
     </row>
-    <row r="17" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E17" s="26">
         <v>10</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="34"/>
+      <c r="F17" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="28">
+        <v>500</v>
+      </c>
+      <c r="H17" s="33">
+        <v>42688</v>
+      </c>
       <c r="L17"/>
     </row>
-    <row r="18" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E18" s="26">
         <v>11</v>
       </c>
@@ -1276,7 +1285,7 @@
       <c r="G18" s="28"/>
       <c r="H18" s="34"/>
     </row>
-    <row r="19" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E19" s="26">
         <v>12</v>
       </c>
@@ -1284,7 +1293,7 @@
       <c r="G19" s="28"/>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E20" s="26">
         <v>13</v>
       </c>
@@ -1292,7 +1301,7 @@
       <c r="G20" s="28"/>
       <c r="H20" s="34"/>
     </row>
-    <row r="21" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E21" s="26">
         <v>14</v>
       </c>
@@ -1300,7 +1309,7 @@
       <c r="G21" s="28"/>
       <c r="H21" s="34"/>
     </row>
-    <row r="22" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E22" s="26">
         <v>15</v>
       </c>
@@ -1308,7 +1317,7 @@
       <c r="G22" s="28"/>
       <c r="H22" s="34"/>
     </row>
-    <row r="23" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E23" s="26">
         <v>16</v>
       </c>
@@ -1316,7 +1325,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="34"/>
     </row>
-    <row r="24" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E24" s="26">
         <v>17</v>
       </c>
@@ -1324,7 +1333,7 @@
       <c r="G24" s="28"/>
       <c r="H24" s="34"/>
     </row>
-    <row r="25" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E25" s="26">
         <v>18</v>
       </c>
@@ -1332,7 +1341,7 @@
       <c r="G25" s="28"/>
       <c r="H25" s="34"/>
     </row>
-    <row r="26" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E26" s="26">
         <v>19</v>
       </c>
@@ -1340,7 +1349,7 @@
       <c r="G26" s="28"/>
       <c r="H26" s="34"/>
     </row>
-    <row r="27" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E27" s="26">
         <v>20</v>
       </c>
@@ -1348,7 +1357,7 @@
       <c r="G27" s="28"/>
       <c r="H27" s="34"/>
     </row>
-    <row r="28" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E28" s="26">
         <v>21</v>
       </c>
@@ -1356,7 +1365,7 @@
       <c r="G28" s="28"/>
       <c r="H28" s="34"/>
     </row>
-    <row r="29" spans="5:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E29" s="26">
         <v>22</v>
       </c>
@@ -1364,7 +1373,7 @@
       <c r="G29" s="28"/>
       <c r="H29" s="34"/>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.4">
       <c r="G30" s="15"/>
     </row>
   </sheetData>
@@ -1381,19 +1390,19 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="8.85546875" style="2"/>
-    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="14" customWidth="1"/>
-    <col min="8" max="9" width="8.85546875" style="2"/>
-    <col min="10" max="10" width="36.5703125" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="12.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="14" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="36.5546875" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="5:16" x14ac:dyDescent="0.4">
       <c r="F2" s="8"/>
       <c r="H2"/>
       <c r="I2"/>
@@ -1403,7 +1412,7 @@
       <c r="M2"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:16" x14ac:dyDescent="0.4">
       <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
@@ -1414,7 +1423,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F4" s="9"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -1423,8 +1432,8 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="6" spans="5:16" ht="21" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="5:16" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="5:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E7" s="20" t="s">
         <v>0</v>
       </c>
@@ -1440,7 +1449,7 @@
       <c r="K7" s="4"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="5:16" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E8" s="6">
         <v>1</v>
       </c>
@@ -1452,21 +1461,21 @@
       </c>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="5:16" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E9" s="6">
         <v>2</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="5:16" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E10" s="6">
         <v>3</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="5:16" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E11" s="6">
         <v>4</v>
       </c>
@@ -1476,7 +1485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="5:16" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E12" s="6">
         <v>5</v>
       </c>
@@ -1487,35 +1496,35 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="5:16" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E13" s="6">
         <v>6</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="5:16" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E14" s="6">
         <v>7</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="5:16" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E15" s="6">
         <v>8</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="5:16" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E16" s="6">
         <v>9</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E17" s="6">
         <v>10</v>
       </c>
@@ -1523,91 +1532,91 @@
       <c r="G17" s="19"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E18" s="6">
         <v>11</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E19" s="6">
         <v>12</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E20" s="6">
         <v>13</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E21" s="6">
         <v>14</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E22" s="6">
         <v>15</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E23" s="6">
         <v>16</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E24" s="6">
         <v>17</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E25" s="6">
         <v>18</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="19"/>
     </row>
-    <row r="26" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E26" s="6">
         <v>19</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E27" s="6">
         <v>20</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E28" s="6">
         <v>21</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="5:12" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E29" s="6">
         <v>22</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="19"/>
     </row>
-    <row r="30" spans="5:12" ht="21" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:12" ht="21.6" thickTop="1" x14ac:dyDescent="0.4">
       <c r="G30" s="15"/>
     </row>
   </sheetData>

--- a/Chi Phi Hang Thang.xlsx
+++ b/Chi Phi Hang Thang.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Tiền tiêu vặt tuần</t>
+  </si>
+  <si>
+    <t>Bạn Huyền JAWHM</t>
+  </si>
+  <si>
+    <t>Đi Đám cưới</t>
   </si>
 </sst>
 </file>
@@ -343,7 +349,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,6 +440,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1050,7 +1065,7 @@
   <dimension ref="E1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -1068,7 +1083,9 @@
   <sheetData>
     <row r="1" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="5:16" x14ac:dyDescent="0.4">
-      <c r="F2" s="8"/>
+      <c r="F2" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="H2" s="31"/>
       <c r="I2"/>
       <c r="J2"/>
@@ -1078,9 +1095,7 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="5:16" x14ac:dyDescent="0.4">
-      <c r="F3" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="F3" s="36"/>
       <c r="H3" s="31"/>
       <c r="I3"/>
       <c r="J3"/>
@@ -1089,7 +1104,7 @@
       <c r="M3"/>
     </row>
     <row r="4" spans="5:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F4" s="9"/>
+      <c r="F4" s="37"/>
       <c r="H4" s="31"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -1124,15 +1139,13 @@
       <c r="F8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="28">
-        <v>815</v>
-      </c>
+      <c r="G8" s="28"/>
       <c r="H8" s="33">
         <v>42681</v>
       </c>
       <c r="J8" s="17">
         <f>SUM(G:G)</f>
-        <v>6235</v>
+        <v>5220</v>
       </c>
       <c r="M8" s="16"/>
     </row>
@@ -1191,15 +1204,13 @@
       <c r="F12" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="28">
-        <v>1000</v>
-      </c>
+      <c r="G12" s="28"/>
       <c r="H12" s="33">
         <v>42682</v>
       </c>
       <c r="J12" s="22">
         <f>(10000-J8)</f>
-        <v>3765</v>
+        <v>4780</v>
       </c>
       <c r="K12" s="30" t="str">
         <f>IF(J12&gt;=3000,"Good ! Bạn Tiêu Tiết Kiệm","Bạn Chưa Tiết Kiệm")</f>
@@ -1281,25 +1292,43 @@
       <c r="E18" s="26">
         <v>11</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="34"/>
+      <c r="F18" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="28">
+        <v>200</v>
+      </c>
+      <c r="H18" s="33">
+        <v>42692</v>
+      </c>
     </row>
     <row r="19" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E19" s="26">
         <v>12</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="34"/>
+      <c r="F19" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="28">
+        <v>400</v>
+      </c>
+      <c r="H19" s="33">
+        <v>42694</v>
+      </c>
     </row>
     <row r="20" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E20" s="26">
         <v>13</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="34"/>
+      <c r="F20" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="28">
+        <v>200</v>
+      </c>
+      <c r="H20" s="33">
+        <v>42694</v>
+      </c>
     </row>
     <row r="21" spans="5:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E21" s="26">
@@ -1377,6 +1406,9 @@
       <c r="G30" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:F4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
